--- a/Abigail/Ejercicio09/Tablas_A.xlsx
+++ b/Abigail/Ejercicio09/Tablas_A.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abigail\Desktop\ESCUELA\GitHub\Analisis-Algoritmos\Abigail\Ejercicio09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnADM\Documents\ESCUELA\GitHub\Analisis-Algoritmos\Abigail\Ejercicio09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3892AE1-7549-491F-80D4-BB542F62BD08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AC23FD-AB22-470E-92F1-0313DE7864B9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{8FB4B915-EC4A-4BE7-8A94-E1D30AFEF296}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="2" xr2:uid="{8FB4B915-EC4A-4BE7-8A94-E1D30AFEF296}"/>
   </bookViews>
   <sheets>
     <sheet name="Dijkstra" sheetId="1" r:id="rId1"/>
     <sheet name="Prim" sheetId="2" r:id="rId2"/>
+    <sheet name="Kruskal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="82">
   <si>
     <t>A</t>
   </si>
@@ -275,13 +276,16 @@
   </si>
   <si>
     <t>Ejercicio 05</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,8 +313,21 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,8 +340,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -347,11 +394,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -378,6 +452,63 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B92E64A-6FA8-4E0B-A10E-89E46390F28A}">
   <dimension ref="B3:S82"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K4"/>
+    <sheetView topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,16 +864,16 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
@@ -778,7 +909,7 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="3"/>
@@ -791,22 +922,22 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="11">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -829,26 +960,26 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -879,34 +1010,34 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="11">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -933,30 +1064,30 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -1071,21 +1202,21 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
@@ -1109,23 +1240,23 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="11">
+        <v>4</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
@@ -1153,31 +1284,31 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
+      <c r="B27" s="11">
         <v>6</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="C27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -1209,27 +1340,27 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="11">
+        <v>8</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
@@ -1334,25 +1465,25 @@
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>2</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="11">
+        <v>2</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
     </row>
     <row r="38" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
@@ -1378,31 +1509,31 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="B39" s="11">
+        <v>4</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
@@ -1430,33 +1561,33 @@
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
+      <c r="B41" s="11">
         <v>6</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="C41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
     </row>
     <row r="42" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
@@ -1492,35 +1623,35 @@
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="B43" s="11">
+        <v>8</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
     </row>
     <row r="44" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
@@ -1558,41 +1689,41 @@
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="2">
+      <c r="B45" s="11">
         <v>10</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="C45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
     </row>
     <row r="46" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
@@ -1636,43 +1767,43 @@
       </c>
     </row>
     <row r="47" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2">
+      <c r="B47" s="11">
         <v>12</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="C47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N47" s="3"/>
+      <c r="N47" s="12"/>
     </row>
     <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
@@ -1747,19 +1878,19 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="2">
-        <v>2</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="11">
+        <v>2</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
@@ -1779,25 +1910,25 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
-        <v>4</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="B57" s="11">
+        <v>4</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="3"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
@@ -1823,23 +1954,23 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="2">
+      <c r="B59" s="11">
         <v>6</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
@@ -1964,30 +2095,30 @@
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
     </row>
     <row r="68" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
@@ -2022,32 +2153,32 @@
       <c r="S68" s="5"/>
     </row>
     <row r="69" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
     </row>
     <row r="70" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
@@ -2080,38 +2211,38 @@
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="B71" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
     </row>
     <row r="72" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
@@ -2150,42 +2281,42 @@
       <c r="S72" s="5"/>
     </row>
     <row r="73" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="C73" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K73" s="3"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
     </row>
     <row r="74" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
@@ -2228,48 +2359,48 @@
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I75" s="3" t="s">
+      <c r="B75" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K75" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="L75" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
     </row>
     <row r="76" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
@@ -2314,50 +2445,50 @@
       <c r="S76" s="5"/>
     </row>
     <row r="77" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77" s="3" t="s">
+      <c r="C77" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L77" s="3" t="s">
+      <c r="L77" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="M77" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N77" s="2" t="s">
+      <c r="N77" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
     </row>
     <row r="78" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
@@ -2414,54 +2545,54 @@
       <c r="S78" s="5"/>
     </row>
     <row r="79" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M79" s="3" t="s">
+      <c r="C79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="N79" s="3" t="s">
+      <c r="N79" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O79" s="3" t="s">
+      <c r="O79" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="P79" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
     </row>
     <row r="80" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
@@ -2512,56 +2643,56 @@
       <c r="S80" s="5"/>
     </row>
     <row r="81" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O81" s="3" t="s">
+      <c r="C81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O81" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="P81" s="3" t="s">
+      <c r="P81" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Q81" s="2" t="s">
+      <c r="Q81" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
     </row>
     <row r="82" spans="2:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
@@ -2620,12 +2751,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B50:H51"/>
     <mergeCell ref="B62:N63"/>
     <mergeCell ref="B3:K4"/>
     <mergeCell ref="B18:K19"/>
     <mergeCell ref="B32:N33"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2634,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68237EAC-AE89-4C84-B94A-B4FB672016E1}">
-  <dimension ref="B1:T37"/>
+  <dimension ref="B1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P17" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,11 +2778,13 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>76</v>
       </c>
@@ -2666,18 +2800,22 @@
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
-      <c r="N1" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
       <c r="R1" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+    </row>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2687,61 +2825,94 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -2770,74 +2941,114 @@
       <c r="L5" s="3">
         <v>3</v>
       </c>
+      <c r="M5" s="18"/>
       <c r="N5" s="3">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3">
+        <v>9</v>
+      </c>
+      <c r="P5" s="3">
+        <v>9</v>
+      </c>
+      <c r="R5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="3">
-        <v>2</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="S5" s="3">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3">
         <v>7</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="X5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16">
         <v>5</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="3">
+      <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
+      <c r="H6" s="16">
+        <v>5</v>
+      </c>
+      <c r="J6" s="16">
         <v>1</v>
       </c>
-      <c r="K6" s="3">
-        <v>3</v>
-      </c>
-      <c r="L6" s="3">
-        <v>3</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="K6" s="16">
+        <v>3</v>
+      </c>
+      <c r="L6" s="16">
+        <v>3</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="16">
+        <v>6</v>
+      </c>
+      <c r="O6" s="16">
+        <v>8</v>
+      </c>
+      <c r="P6" s="16">
         <v>1</v>
       </c>
-      <c r="O6" s="3">
-        <v>3</v>
-      </c>
-      <c r="P6" s="3">
-        <v>9</v>
-      </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="16">
+        <v>1</v>
+      </c>
+      <c r="S6" s="16">
+        <v>3</v>
+      </c>
+      <c r="T6" s="16">
+        <v>9</v>
+      </c>
+      <c r="V6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="W6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -2866,74 +3077,114 @@
       <c r="L7" s="3">
         <v>3</v>
       </c>
+      <c r="M7" s="18"/>
       <c r="N7" s="3">
+        <v>6</v>
+      </c>
+      <c r="O7" s="3">
+        <v>9</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3</v>
+      </c>
+      <c r="R7" s="3">
         <v>1</v>
       </c>
-      <c r="O7" s="3">
+      <c r="S7" s="3">
         <v>6</v>
       </c>
-      <c r="P7" s="3">
+      <c r="T7" s="3">
         <v>14</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="W7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16">
         <v>9</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>9</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>9</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="F8" s="16">
+        <v>2</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4</v>
+      </c>
+      <c r="H8" s="16">
+        <v>9</v>
+      </c>
+      <c r="J8" s="16">
+        <v>2</v>
+      </c>
+      <c r="K8" s="16">
+        <v>3</v>
+      </c>
+      <c r="L8" s="16">
+        <v>9</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="16">
+        <v>7</v>
+      </c>
+      <c r="O8" s="16">
+        <v>8</v>
+      </c>
+      <c r="P8" s="16">
+        <v>5</v>
+      </c>
+      <c r="R8" s="16">
+        <v>2</v>
+      </c>
+      <c r="S8" s="16">
+        <v>3</v>
+      </c>
+      <c r="T8" s="16">
         <v>10</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="V8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="S8" s="3">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="W8" s="16">
+        <v>4</v>
+      </c>
+      <c r="X8" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -2962,74 +3213,114 @@
       <c r="L9" s="3">
         <v>2</v>
       </c>
+      <c r="M9" s="18"/>
       <c r="N9" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O9" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P9" s="3">
+        <v>2</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2</v>
+      </c>
+      <c r="S9" s="3">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>15</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="X9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16">
         <v>5</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="16">
+        <v>8</v>
+      </c>
+      <c r="H10" s="16">
         <v>7</v>
       </c>
-      <c r="J10" s="3">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="J10" s="16">
+        <v>2</v>
+      </c>
+      <c r="K10" s="16">
         <v>7</v>
       </c>
-      <c r="L10" s="3">
-        <v>9</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="L10" s="16">
+        <v>9</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="16">
+        <v>7</v>
+      </c>
+      <c r="O10" s="16">
         <v>11</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="P10" s="16">
+        <v>9</v>
+      </c>
+      <c r="R10" s="16">
+        <v>3</v>
+      </c>
+      <c r="S10" s="16">
+        <v>4</v>
+      </c>
+      <c r="T10" s="16">
+        <v>11</v>
+      </c>
+      <c r="V10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="W10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -3058,74 +3349,114 @@
       <c r="L11" s="3">
         <v>3</v>
       </c>
+      <c r="M11" s="18"/>
       <c r="N11" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O11" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P11" s="3">
+        <v>5</v>
+      </c>
+      <c r="R11" s="3">
+        <v>4</v>
+      </c>
+      <c r="S11" s="3">
+        <v>5</v>
+      </c>
+      <c r="T11" s="3">
         <v>6</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S11" s="3">
-        <v>4</v>
-      </c>
-      <c r="T11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="V11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="3">
+        <v>4</v>
+      </c>
+      <c r="X11" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16">
+        <v>8</v>
+      </c>
+      <c r="D12" s="16">
         <v>3</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
+      <c r="G12" s="16">
+        <v>8</v>
+      </c>
+      <c r="H12" s="16">
         <v>7</v>
       </c>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2</v>
-      </c>
-      <c r="N12" s="3">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="J12" s="16">
+        <v>3</v>
+      </c>
+      <c r="K12" s="16">
+        <v>5</v>
+      </c>
+      <c r="L12" s="16">
+        <v>2</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="16">
+        <v>8</v>
+      </c>
+      <c r="O12" s="16">
+        <v>10</v>
+      </c>
+      <c r="P12" s="16">
+        <v>1</v>
+      </c>
+      <c r="R12" s="16">
+        <v>5</v>
+      </c>
+      <c r="S12" s="16">
         <v>6</v>
       </c>
-      <c r="P12" s="3">
-        <v>9</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T12" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="T12" s="16">
+        <v>9</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>4</v>
       </c>
@@ -3154,56 +3485,96 @@
       <c r="L13" s="3">
         <v>2</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="M13" s="18"/>
+      <c r="N13" s="3">
+        <v>8</v>
+      </c>
+      <c r="O13" s="3">
+        <v>12</v>
+      </c>
+      <c r="P13" s="3">
+        <v>5</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X13" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>5</v>
+      </c>
+      <c r="C14" s="16">
         <v>7</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="16">
         <v>3</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="3">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="F14" s="16">
+        <v>4</v>
+      </c>
+      <c r="G14" s="16">
+        <v>8</v>
+      </c>
+      <c r="H14" s="16">
         <v>18</v>
       </c>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="J14" s="16">
+        <v>3</v>
+      </c>
+      <c r="K14" s="16">
+        <v>8</v>
+      </c>
+      <c r="L14" s="16">
+        <v>3</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="16">
+        <v>9</v>
+      </c>
+      <c r="O14" s="16">
         <v>12</v>
       </c>
-      <c r="T14" s="3">
+      <c r="P14" s="16">
+        <v>8</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="16">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -3232,56 +3603,96 @@
       <c r="L15" s="3">
         <v>7</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="M15" s="18"/>
+      <c r="N15" s="3">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3">
+        <v>12</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
         <v>6</v>
       </c>
-      <c r="C16" s="3">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="16">
+        <v>8</v>
+      </c>
+      <c r="D16" s="16">
         <v>5</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="3">
+      <c r="F16" s="16">
         <v>6</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="16">
         <v>7</v>
       </c>
-      <c r="H16" s="3">
-        <v>5</v>
-      </c>
-      <c r="J16" s="3">
-        <v>4</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="H16" s="16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="16">
+        <v>4</v>
+      </c>
+      <c r="K16" s="16">
         <v>7</v>
       </c>
-      <c r="L16" s="3">
-        <v>2</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S16" s="3" t="s">
+      <c r="L16" s="16">
+        <v>2</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="16">
+        <v>11</v>
+      </c>
+      <c r="O16" s="16">
         <v>12</v>
       </c>
-      <c r="T16" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="P16" s="16">
+        <v>9</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="16">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>6</v>
       </c>
@@ -3301,65 +3712,75 @@
       <c r="H17" s="3">
         <v>8</v>
       </c>
-      <c r="J17" s="3">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
-        <v>9</v>
-      </c>
-      <c r="L17" s="3">
-        <v>9</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
         <v>7</v>
       </c>
-      <c r="C18" s="3">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="16">
+        <v>8</v>
+      </c>
+      <c r="D18" s="16">
         <v>5</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="3">
+      <c r="F18" s="16">
         <v>7</v>
       </c>
-      <c r="G18" s="3">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
-        <v>9</v>
-      </c>
-      <c r="J18" s="3">
-        <v>6</v>
-      </c>
-      <c r="K18" s="3">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3" t="s">
+      <c r="G18" s="16">
+        <v>8</v>
+      </c>
+      <c r="H18" s="16">
+        <v>9</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="V18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X18" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>8</v>
       </c>
@@ -3373,258 +3794,1277 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="J19" s="3">
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="V19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="3">
-        <v>9</v>
-      </c>
-      <c r="L19" s="3">
-        <v>3</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T19" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="J20" s="3">
+      <c r="X19" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="V20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="3">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="X20" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="J21" s="3">
-        <v>6</v>
-      </c>
-      <c r="K21" s="3">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="J22" s="3">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>7</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T22" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="J23" s="3">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
-        <v>9</v>
-      </c>
-      <c r="L23" s="3">
-        <v>9</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T23" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="J24" s="3">
-        <v>6</v>
-      </c>
-      <c r="K24" s="3">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T24" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="J25" s="3">
-        <v>4</v>
-      </c>
-      <c r="K25" s="3">
-        <v>7</v>
-      </c>
-      <c r="L25" s="3">
-        <v>2</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T25" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="J26" s="3">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
-        <v>9</v>
-      </c>
-      <c r="L26" s="3">
-        <v>9</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T26" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="J27" s="3">
-        <v>6</v>
-      </c>
-      <c r="K27" s="3">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T27" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="R28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T28" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="R29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T29" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="R30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="2:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="18:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="18:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-    </row>
-    <row r="35" spans="18:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-    </row>
-    <row r="36" spans="18:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-    </row>
-    <row r="37" spans="18:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="Y20" s="20"/>
+    </row>
+    <row r="21" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+    </row>
+    <row r="22" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+    </row>
+    <row r="24" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+    </row>
+    <row r="26" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+    </row>
+    <row r="27" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+    </row>
+    <row r="28" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+    </row>
+    <row r="37" spans="22:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="M3:M16"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Y4:Y20"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="F1:H2"/>
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="N1:P2"/>
     <mergeCell ref="R1:T2"/>
+    <mergeCell ref="V1:X2"/>
+    <mergeCell ref="J1:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977F5585-E192-439D-B747-6A025359A82C}">
+  <dimension ref="B2:AC29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R2" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="22"/>
+    <col min="14" max="14" width="14.5703125" style="22" customWidth="1"/>
+    <col min="15" max="16" width="11.42578125" style="22"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="29"/>
+    </row>
+    <row r="3" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="29"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="24">
+        <v>3</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23">
+        <v>2</v>
+      </c>
+      <c r="H6" s="24">
+        <v>3</v>
+      </c>
+      <c r="J6" s="23">
+        <v>6</v>
+      </c>
+      <c r="K6" s="23">
+        <v>8</v>
+      </c>
+      <c r="L6" s="24">
+        <v>1</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" s="23">
+        <v>3</v>
+      </c>
+      <c r="O6" s="23">
+        <v>8</v>
+      </c>
+      <c r="P6" s="24">
+        <v>3</v>
+      </c>
+      <c r="R6" s="23">
+        <v>4</v>
+      </c>
+      <c r="S6" s="23">
+        <v>5</v>
+      </c>
+      <c r="T6" s="24">
+        <v>6</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25">
+        <v>7</v>
+      </c>
+      <c r="D7" s="26">
+        <v>3</v>
+      </c>
+      <c r="F7" s="25">
+        <v>2</v>
+      </c>
+      <c r="G7" s="25">
+        <v>3</v>
+      </c>
+      <c r="H7" s="26">
+        <v>3</v>
+      </c>
+      <c r="J7" s="25">
+        <v>8</v>
+      </c>
+      <c r="K7" s="26">
+        <v>10</v>
+      </c>
+      <c r="L7" s="26">
+        <v>1</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" s="25">
+        <v>6</v>
+      </c>
+      <c r="O7" s="26">
+        <v>9</v>
+      </c>
+      <c r="P7" s="26">
+        <v>3</v>
+      </c>
+      <c r="R7" s="25">
+        <v>1</v>
+      </c>
+      <c r="S7" s="25">
+        <v>2</v>
+      </c>
+      <c r="T7" s="26">
+        <v>7</v>
+      </c>
+      <c r="V7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23">
+        <v>8</v>
+      </c>
+      <c r="D8" s="24">
+        <v>3</v>
+      </c>
+      <c r="F8" s="23">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
+        <v>4</v>
+      </c>
+      <c r="H8" s="24">
+        <v>5</v>
+      </c>
+      <c r="J8" s="23">
+        <v>2</v>
+      </c>
+      <c r="K8" s="23">
+        <v>4</v>
+      </c>
+      <c r="L8" s="24">
+        <v>2</v>
+      </c>
+      <c r="M8" s="30"/>
+      <c r="N8" s="23">
+        <v>7</v>
+      </c>
+      <c r="O8" s="24">
+        <v>8</v>
+      </c>
+      <c r="P8" s="24">
+        <v>5</v>
+      </c>
+      <c r="R8" s="23">
+        <v>1</v>
+      </c>
+      <c r="S8" s="23">
+        <v>3</v>
+      </c>
+      <c r="T8" s="24">
+        <v>9</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" s="24">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25">
+        <v>7</v>
+      </c>
+      <c r="D9" s="26">
+        <v>3</v>
+      </c>
+      <c r="F9" s="25">
+        <v>5</v>
+      </c>
+      <c r="G9" s="25">
+        <v>8</v>
+      </c>
+      <c r="H9" s="26">
+        <v>5</v>
+      </c>
+      <c r="J9" s="25">
+        <v>3</v>
+      </c>
+      <c r="K9" s="25">
+        <v>5</v>
+      </c>
+      <c r="L9" s="26">
+        <v>2</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="25">
+        <v>8</v>
+      </c>
+      <c r="O9" s="26">
+        <v>9</v>
+      </c>
+      <c r="P9" s="26">
+        <v>5</v>
+      </c>
+      <c r="R9" s="25">
+        <v>5</v>
+      </c>
+      <c r="S9" s="25">
+        <v>6</v>
+      </c>
+      <c r="T9" s="26">
+        <v>9</v>
+      </c>
+      <c r="V9" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23">
+        <v>3</v>
+      </c>
+      <c r="D10" s="24">
+        <v>5</v>
+      </c>
+      <c r="F10" s="23">
+        <v>6</v>
+      </c>
+      <c r="G10" s="23">
+        <v>7</v>
+      </c>
+      <c r="H10" s="24">
+        <v>5</v>
+      </c>
+      <c r="J10" s="23">
+        <v>3</v>
+      </c>
+      <c r="K10" s="23">
+        <v>6</v>
+      </c>
+      <c r="L10" s="24">
+        <v>2</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="23">
+        <v>8</v>
+      </c>
+      <c r="O10" s="24">
+        <v>12</v>
+      </c>
+      <c r="P10" s="24">
+        <v>5</v>
+      </c>
+      <c r="R10" s="23">
+        <v>2</v>
+      </c>
+      <c r="S10" s="23">
+        <v>3</v>
+      </c>
+      <c r="T10" s="24">
+        <v>10</v>
+      </c>
+      <c r="V10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="24">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>1</v>
+      </c>
+      <c r="C11" s="25">
+        <v>4</v>
+      </c>
+      <c r="D11" s="26">
+        <v>5</v>
+      </c>
+      <c r="F11" s="25">
+        <v>4</v>
+      </c>
+      <c r="G11" s="25">
+        <v>6</v>
+      </c>
+      <c r="H11" s="26">
+        <v>6</v>
+      </c>
+      <c r="J11" s="25">
+        <v>4</v>
+      </c>
+      <c r="K11" s="25">
+        <v>7</v>
+      </c>
+      <c r="L11" s="26">
+        <v>2</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="25">
+        <v>3</v>
+      </c>
+      <c r="O11" s="25">
+        <v>9</v>
+      </c>
+      <c r="P11" s="26">
+        <v>7</v>
+      </c>
+      <c r="R11" s="25">
+        <v>3</v>
+      </c>
+      <c r="S11" s="25">
+        <v>4</v>
+      </c>
+      <c r="T11" s="26">
+        <v>11</v>
+      </c>
+      <c r="V11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB11" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>3</v>
+      </c>
+      <c r="C12" s="23">
+        <v>4</v>
+      </c>
+      <c r="D12" s="24">
+        <v>5</v>
+      </c>
+      <c r="F12" s="23">
+        <v>2</v>
+      </c>
+      <c r="G12" s="23">
+        <v>8</v>
+      </c>
+      <c r="H12" s="24">
+        <v>7</v>
+      </c>
+      <c r="J12" s="23">
+        <v>7</v>
+      </c>
+      <c r="K12" s="24">
+        <v>10</v>
+      </c>
+      <c r="L12" s="24">
+        <v>2</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="23">
+        <v>9</v>
+      </c>
+      <c r="O12" s="24">
+        <v>12</v>
+      </c>
+      <c r="P12" s="24">
+        <v>8</v>
+      </c>
+      <c r="R12" s="23">
+        <v>1</v>
+      </c>
+      <c r="S12" s="23">
+        <v>6</v>
+      </c>
+      <c r="T12" s="24">
+        <v>14</v>
+      </c>
+      <c r="V12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" s="23">
+        <v>4</v>
+      </c>
+      <c r="X12" s="24">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="25">
+        <v>3</v>
+      </c>
+      <c r="C13" s="25">
+        <v>6</v>
+      </c>
+      <c r="D13" s="26">
+        <v>5</v>
+      </c>
+      <c r="F13" s="25">
+        <v>3</v>
+      </c>
+      <c r="G13" s="25">
+        <v>4</v>
+      </c>
+      <c r="H13" s="26">
+        <v>7</v>
+      </c>
+      <c r="J13" s="25">
+        <v>10</v>
+      </c>
+      <c r="K13" s="26">
+        <v>12</v>
+      </c>
+      <c r="L13" s="26">
+        <v>2</v>
+      </c>
+      <c r="M13" s="30"/>
+      <c r="N13" s="25">
+        <v>2</v>
+      </c>
+      <c r="O13" s="25">
+        <v>3</v>
+      </c>
+      <c r="P13" s="26">
+        <v>9</v>
+      </c>
+      <c r="R13" s="25">
+        <v>2</v>
+      </c>
+      <c r="S13" s="25">
+        <v>4</v>
+      </c>
+      <c r="T13" s="26">
+        <v>15</v>
+      </c>
+      <c r="V13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="X13" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB13" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>5</v>
+      </c>
+      <c r="C14" s="23">
+        <v>9</v>
+      </c>
+      <c r="D14" s="24">
+        <v>5</v>
+      </c>
+      <c r="F14" s="23">
+        <v>3</v>
+      </c>
+      <c r="G14" s="23">
+        <v>8</v>
+      </c>
+      <c r="H14" s="24">
+        <v>7</v>
+      </c>
+      <c r="J14" s="23">
+        <v>1</v>
+      </c>
+      <c r="K14" s="23">
+        <v>2</v>
+      </c>
+      <c r="L14" s="24">
+        <v>3</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="23">
+        <v>2</v>
+      </c>
+      <c r="O14" s="23">
+        <v>7</v>
+      </c>
+      <c r="P14" s="24">
+        <v>9</v>
+      </c>
+      <c r="V14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="24">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="25">
+        <v>6</v>
+      </c>
+      <c r="C15" s="25">
+        <v>8</v>
+      </c>
+      <c r="D15" s="26">
+        <v>5</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2</v>
+      </c>
+      <c r="G15" s="25">
+        <v>5</v>
+      </c>
+      <c r="H15" s="26">
+        <v>8</v>
+      </c>
+      <c r="J15" s="25">
+        <v>1</v>
+      </c>
+      <c r="K15" s="25">
+        <v>3</v>
+      </c>
+      <c r="L15" s="26">
+        <v>3</v>
+      </c>
+      <c r="M15" s="30"/>
+      <c r="N15" s="25">
+        <v>5</v>
+      </c>
+      <c r="O15" s="25">
+        <v>9</v>
+      </c>
+      <c r="P15" s="26">
+        <v>9</v>
+      </c>
+      <c r="V15" s="25">
+        <v>4</v>
+      </c>
+      <c r="W15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>7</v>
+      </c>
+      <c r="C16" s="23">
+        <v>8</v>
+      </c>
+      <c r="D16" s="24">
+        <v>5</v>
+      </c>
+      <c r="F16" s="23">
+        <v>6</v>
+      </c>
+      <c r="G16" s="23">
+        <v>8</v>
+      </c>
+      <c r="H16" s="24">
+        <v>8</v>
+      </c>
+      <c r="J16" s="23">
+        <v>1</v>
+      </c>
+      <c r="K16" s="23">
+        <v>5</v>
+      </c>
+      <c r="L16" s="24">
+        <v>3</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="23">
+        <v>7</v>
+      </c>
+      <c r="O16" s="24">
+        <v>11</v>
+      </c>
+      <c r="P16" s="24">
+        <v>9</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="24">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB16" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="25">
+        <v>8</v>
+      </c>
+      <c r="C17" s="25">
+        <v>9</v>
+      </c>
+      <c r="D17" s="26">
+        <v>6</v>
+      </c>
+      <c r="F17" s="25">
+        <v>2</v>
+      </c>
+      <c r="G17" s="25">
+        <v>4</v>
+      </c>
+      <c r="H17" s="26">
+        <v>9</v>
+      </c>
+      <c r="J17" s="25">
+        <v>3</v>
+      </c>
+      <c r="K17" s="25">
+        <v>4</v>
+      </c>
+      <c r="L17" s="26">
+        <v>3</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="25">
+        <v>11</v>
+      </c>
+      <c r="O17" s="26">
+        <v>12</v>
+      </c>
+      <c r="P17" s="26">
+        <v>9</v>
+      </c>
+      <c r="V17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="23">
+        <v>6</v>
+      </c>
+      <c r="C18" s="23">
+        <v>9</v>
+      </c>
+      <c r="D18" s="24">
+        <v>8</v>
+      </c>
+      <c r="F18" s="23">
+        <v>7</v>
+      </c>
+      <c r="G18" s="23">
+        <v>8</v>
+      </c>
+      <c r="H18" s="24">
+        <v>9</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="V18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="23">
+        <v>4</v>
+      </c>
+      <c r="X18" s="24">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA18" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB18" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
+        <v>2</v>
+      </c>
+      <c r="C19" s="25">
+        <v>3</v>
+      </c>
+      <c r="D19" s="26">
+        <v>9</v>
+      </c>
+      <c r="F19" s="25">
+        <v>4</v>
+      </c>
+      <c r="G19" s="25">
+        <v>8</v>
+      </c>
+      <c r="H19" s="26">
+        <v>18</v>
+      </c>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="V19" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" s="26">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB19" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="23">
+        <v>4</v>
+      </c>
+      <c r="C20" s="23">
+        <v>6</v>
+      </c>
+      <c r="D20" s="24">
+        <v>15</v>
+      </c>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="V20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="24">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB20" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="V21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="W21" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="26">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB21" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="V22" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="24">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="V2:AB3"/>
+    <mergeCell ref="J2:P3"/>
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="M5:M18"/>
+    <mergeCell ref="Y5:Y22"/>
+    <mergeCell ref="V23:AB24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>